--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_19-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_19-34.xlsx
@@ -41,12 +41,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -77,9 +83,6 @@
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -228,6 +231,9 @@
   </si>
   <si>
     <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
   </si>
   <si>
     <t>HALONACE 5 MG 10 TABS.</t>
@@ -1101,7 +1107,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -1111,7 +1117,7 @@
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -1119,7 +1125,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1127,17 +1133,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1145,7 +1151,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1153,17 +1159,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1171,7 +1177,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1179,17 +1185,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1197,7 +1203,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1205,17 +1211,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1231,17 +1237,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1257,17 +1263,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1275,7 +1281,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1283,17 +1289,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1301,7 +1307,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1309,17 +1315,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>522.5</v>
+        <v>18</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1335,17 +1341,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>86</v>
+        <v>522.5</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1361,7 +1367,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1371,7 +1377,7 @@
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1379,7 +1385,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1387,17 +1393,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1413,17 +1419,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1439,17 +1445,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1457,7 +1463,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1465,17 +1471,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1491,17 +1497,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1517,17 +1523,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1543,17 +1549,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1561,7 +1567,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1569,17 +1575,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1595,17 +1601,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1613,7 +1619,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1621,17 +1627,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1639,7 +1645,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1647,17 +1653,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1673,17 +1679,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>47.5</v>
+        <v>98</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1705,11 +1711,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>60</v>
+        <v>47.5</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1725,17 +1731,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1751,17 +1757,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1769,7 +1775,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1777,17 +1783,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1795,7 +1801,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1803,17 +1809,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1829,17 +1835,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1847,7 +1853,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1855,17 +1861,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1881,17 +1887,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1907,17 +1913,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1933,17 +1939,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1959,17 +1965,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1977,7 +1983,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1985,17 +1991,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2003,7 +2009,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2011,17 +2017,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2037,17 +2043,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2063,17 +2069,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>55.670000000000002</v>
+        <v>69</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2089,17 +2095,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>44</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2115,17 +2121,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2133,7 +2139,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2141,17 +2147,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2167,17 +2173,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>15.300000000000001</v>
+        <v>190</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2193,17 +2199,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2219,17 +2225,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>85.560000000000002</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2245,17 +2251,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2277,11 +2283,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>50.960000000000001</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2297,17 +2303,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2323,17 +2329,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>24</v>
+        <v>50.960000000000001</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2341,7 +2347,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2349,17 +2355,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2367,7 +2373,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2375,17 +2381,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>27.329999999999998</v>
+        <v>24</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2393,7 +2399,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2401,17 +2407,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2427,17 +2433,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>277.5</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2453,17 +2459,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2479,17 +2485,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>247</v>
+        <v>277.5</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2505,7 +2511,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2515,7 +2521,7 @@
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2531,17 +2537,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2557,17 +2563,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2583,17 +2589,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2601,7 +2607,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2609,17 +2615,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2627,7 +2633,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2635,17 +2641,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2661,17 +2667,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2687,17 +2693,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2705,7 +2711,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2713,17 +2719,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2731,7 +2737,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2739,17 +2745,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2765,17 +2771,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2791,17 +2797,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2809,7 +2815,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2817,17 +2823,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2835,7 +2841,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2843,7 +2849,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -2853,7 +2859,7 @@
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2869,17 +2875,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2895,17 +2901,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2921,17 +2927,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>56.399999999999999</v>
+        <v>75</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2939,7 +2945,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2953,11 +2959,11 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2965,7 +2971,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2973,17 +2979,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>30</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2999,17 +3005,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3025,17 +3031,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>65.75</v>
+        <v>30</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3051,17 +3057,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3077,17 +3083,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>140</v>
+        <v>65.75</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3103,17 +3109,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>249.47999999999999</v>
+        <v>15</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3129,7 +3135,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -3139,7 +3145,7 @@
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3147,7 +3153,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3155,17 +3161,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>59</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3173,7 +3179,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3181,17 +3187,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3207,17 +3213,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3233,17 +3239,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3259,17 +3265,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3285,17 +3291,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3311,17 +3317,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3337,17 +3343,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3363,17 +3369,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>9.9499999999999993</v>
+        <v>52</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3381,7 +3387,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3389,17 +3395,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3407,7 +3413,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3415,13 +3421,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>224</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3441,17 +3447,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3467,17 +3473,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3493,17 +3499,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>58.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3511,7 +3517,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3519,17 +3525,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3537,7 +3543,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3545,17 +3551,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>30</v>
+        <v>58.200000000000003</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3563,7 +3569,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3571,17 +3577,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3589,7 +3595,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3597,17 +3603,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>17</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3615,7 +3621,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3623,17 +3629,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3641,7 +3647,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3649,17 +3655,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3667,7 +3673,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3675,17 +3681,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3701,17 +3707,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3727,17 +3733,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3745,7 +3751,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3753,17 +3759,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3771,7 +3777,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3779,17 +3785,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3797,7 +3803,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3805,17 +3811,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>19.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3831,17 +3837,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3857,17 +3863,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>8</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3883,17 +3889,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3909,17 +3915,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3935,51 +3941,103 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" ht="26.25" customHeight="1">
-      <c r="K115" s="10">
-        <v>6704.3000000000002</v>
-      </c>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" ht="25.5" customHeight="1">
+      <c r="A115" s="6">
+        <v>112</v>
+      </c>
+      <c t="s" r="B115" s="7">
         <v>158</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c t="s" r="F116" s="12">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c t="s" r="H115" s="8">
+        <v>8</v>
+      </c>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="9">
+        <v>20</v>
+      </c>
+      <c r="M115" s="9"/>
+      <c t="s" r="N115" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" ht="24.75" customHeight="1">
+      <c r="A116" s="6">
+        <v>113</v>
+      </c>
+      <c t="s" r="B116" s="7">
         <v>159</v>
       </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="13"/>
-      <c t="s" r="I116" s="14">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c t="s" r="H116" s="8">
+        <v>64</v>
+      </c>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="9">
+        <v>30</v>
+      </c>
+      <c r="M116" s="9"/>
+      <c t="s" r="N116" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" ht="26.25" customHeight="1">
+      <c r="K117" s="10">
+        <v>6794.3000000000002</v>
+      </c>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="11">
         <v>160</v>
       </c>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="14"/>
-      <c r="N116" s="14"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c t="s" r="F118" s="12">
+        <v>161</v>
+      </c>
+      <c r="G118" s="12"/>
+      <c r="H118" s="13"/>
+      <c t="s" r="I118" s="14">
+        <v>162</v>
+      </c>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="344">
+  <mergeCells count="350">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4320,10 +4378,16 @@
     <mergeCell ref="B114:G114"/>
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
-    <mergeCell ref="K115:N115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="I116:N116"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="K117:N117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="I118:N118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
